--- a/ms365prices.xlsx
+++ b/ms365prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\AzureDevOps\WORKDIR\Div\MS365ComplainsCAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\GithubRepo\ms365-license-tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCD3F9-BCD3-491F-AC7C-FCE87E539083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA2099-A2D8-42D9-847E-BAA62BB11AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>Productname</t>
   </si>
@@ -232,6 +232,57 @@
   </si>
   <si>
     <t>INTUNE</t>
+  </si>
+  <si>
+    <t>Office 365 E5</t>
+  </si>
+  <si>
+    <t>Office 365 E5 (Month to Month)</t>
+  </si>
+  <si>
+    <t>Office 365 E3 (Month to Month)</t>
+  </si>
+  <si>
+    <t>Office 365 E3</t>
+  </si>
+  <si>
+    <t>Office 365 E1</t>
+  </si>
+  <si>
+    <t>Office 365 E1 (Month to Month)</t>
+  </si>
+  <si>
+    <t>Office 365 F3 (Month to Month)</t>
+  </si>
+  <si>
+    <t>Office 365 F3</t>
+  </si>
+  <si>
+    <t>Office 365 E5 without Audio Conferencing (Month to Month)</t>
+  </si>
+  <si>
+    <t>Office 365 E3 Developer</t>
+  </si>
+  <si>
+    <t>256.30</t>
+  </si>
+  <si>
+    <t>358.90</t>
+  </si>
+  <si>
+    <t>205.10</t>
+  </si>
+  <si>
+    <t>146.50</t>
+  </si>
+  <si>
+    <t>70.50</t>
+  </si>
+  <si>
+    <t>35.30</t>
+  </si>
+  <si>
+    <t>60.40</t>
   </si>
 </sst>
 </file>
@@ -552,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +933,86 @@
       </c>
       <c r="B40" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ms365prices.xlsx
+++ b/ms365prices.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\GithubRepo\ms365-license-tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SimonIngildsen\AzureDevOps\WORKDIR\Div\MS365ComplainsCAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21BA2099-A2D8-42D9-847E-BAA62BB11AB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCD3F9-BCD3-491F-AC7C-FCE87E539083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Productname</t>
   </si>
@@ -232,57 +232,6 @@
   </si>
   <si>
     <t>INTUNE</t>
-  </si>
-  <si>
-    <t>Office 365 E5</t>
-  </si>
-  <si>
-    <t>Office 365 E5 (Month to Month)</t>
-  </si>
-  <si>
-    <t>Office 365 E3 (Month to Month)</t>
-  </si>
-  <si>
-    <t>Office 365 E3</t>
-  </si>
-  <si>
-    <t>Office 365 E1</t>
-  </si>
-  <si>
-    <t>Office 365 E1 (Month to Month)</t>
-  </si>
-  <si>
-    <t>Office 365 F3 (Month to Month)</t>
-  </si>
-  <si>
-    <t>Office 365 F3</t>
-  </si>
-  <si>
-    <t>Office 365 E5 without Audio Conferencing (Month to Month)</t>
-  </si>
-  <si>
-    <t>Office 365 E3 Developer</t>
-  </si>
-  <si>
-    <t>256.30</t>
-  </si>
-  <si>
-    <t>358.90</t>
-  </si>
-  <si>
-    <t>205.10</t>
-  </si>
-  <si>
-    <t>146.50</t>
-  </si>
-  <si>
-    <t>70.50</t>
-  </si>
-  <si>
-    <t>35.30</t>
-  </si>
-  <si>
-    <t>60.40</t>
   </si>
 </sst>
 </file>
@@ -603,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,86 +882,6 @@
       </c>
       <c r="B40" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
